--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/NOTAS PRODUCCION 23-28-Oct-.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/NOTAS PRODUCCION 23-28-Oct-.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="11115" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="11115" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="H E R R A D U R A     " sheetId="5" r:id="rId5"/>
     <sheet name="     11       SUR           " sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="26">
   <si>
     <t>Folio-Ticket</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>CAN</t>
-  </si>
-  <si>
-    <t>P R O D U C C I O N     16- al  21-Oct-2023</t>
   </si>
   <si>
     <t>NOTA</t>
@@ -329,9 +326,6 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +359,9 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2977,8 +2974,8 @@
   </sheetPr>
   <dimension ref="B1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:E98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2990,41 +2987,39 @@
     <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="17" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="2:6" s="17" customFormat="1" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:6" s="16" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="2:6" s="16" customFormat="1" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>240</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15">
         <v>7527</v>
       </c>
     </row>
@@ -4374,10 +4369,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:E39"/>
+  <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4389,44 +4384,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>240</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15">
         <v>7527</v>
       </c>
     </row>
@@ -4515,30 +4510,30 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>253</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="C11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="25">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>254</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="C12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="28">
         <v>3861</v>
       </c>
     </row>
@@ -4557,16 +4552,16 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>261</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="C14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="28">
         <v>267583.5</v>
       </c>
     </row>
@@ -4585,16 +4580,16 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>264</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="C16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="28">
         <v>0</v>
       </c>
     </row>
@@ -4878,22 +4873,17 @@
         <v>3539.2</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E37" s="30">
+    <row r="37" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="32">
-        <f>SUM(E4:E38)</f>
+    <row r="38" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D38" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="31">
+        <f>SUM(E4:E37)</f>
         <v>982143.22999999986</v>
       </c>
     </row>
@@ -4901,7 +4891,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.36" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.41" bottom="0.31" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -4914,7 +4904,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4926,32 +4916,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
@@ -5017,24 +5007,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26">
+    <row r="9" spans="2:5" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="D11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="31">
         <f>SUM(E4:E10)</f>
         <v>40666.800000000003</v>
       </c>
@@ -5056,7 +5046,7 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5068,32 +5058,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -5208,28 +5198,28 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="31">
         <f>SUM(E4:E14)</f>
         <v>285517.68</v>
       </c>
@@ -5250,8 +5240,8 @@
   </sheetPr>
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,32 +5253,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -5403,20 +5393,20 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="D14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="31">
         <f>SUM(E4:E13)</f>
         <v>16541.989999999998</v>
       </c>
